--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业个数、从业人数和劳动生产率.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业个数、从业人数和劳动生产率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,41 @@
           <t>国有及国有控股建筑业按总产值计算劳动生产率_累计值</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业人员数</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业单位数</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业建筑业人均施工面积</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业建筑业人均竣工产值</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业直接从事生产经营活动的平均人数</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业按总产值计算劳动生产率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,11 +519,29 @@
       <c r="G2" t="n">
         <v>49921.42</v>
       </c>
+      <c r="H2" t="n">
+        <v>693.3200000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9841</v>
+      </c>
+      <c r="J2" t="n">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18531.67</v>
+      </c>
+      <c r="L2" t="n">
+        <v>705.92</v>
+      </c>
+      <c r="M2" t="n">
+        <v>49921.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -514,11 +562,29 @@
       <c r="G3" t="n">
         <v>109053.49</v>
       </c>
+      <c r="H3" t="n">
+        <v>54.59999999999991</v>
+      </c>
+      <c r="I3" t="n">
+        <v>231</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="K3" t="n">
+        <v>53392.48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>142.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59132.07000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -539,61 +605,115 @@
       <c r="G4" t="n">
         <v>29684.2</v>
       </c>
+      <c r="H4" t="n">
+        <v>516.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7484</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9924.42</v>
+      </c>
+      <c r="L4" t="n">
+        <v>539.35</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29684.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.5700000000001</v>
+        <v>662.58</v>
       </c>
       <c r="C5" t="n">
-        <v>8986</v>
+        <v>8769</v>
       </c>
       <c r="D5" t="n">
-        <v>88.79000000000001</v>
+        <v>79.05</v>
       </c>
       <c r="E5" t="n">
-        <v>38009.08</v>
+        <v>20798.81</v>
       </c>
       <c r="F5" t="n">
-        <v>747.35</v>
+        <v>705.8200000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>94713.78999999999</v>
+        <v>60024.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>146.5300000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1285</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.86999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10874.39</v>
+      </c>
+      <c r="L5" t="n">
+        <v>166.47</v>
+      </c>
+      <c r="M5" t="n">
+        <v>30340.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.58</v>
+        <v>752.5700000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>8769</v>
+        <v>8986</v>
       </c>
       <c r="D6" t="n">
-        <v>79.05</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20798.81</v>
+        <v>38009.08</v>
       </c>
       <c r="F6" t="n">
-        <v>705.8200000000001</v>
+        <v>747.35</v>
       </c>
       <c r="G6" t="n">
-        <v>60024.75</v>
+        <v>94713.78999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89.99000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.740000000000009</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17210.27</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41.52999999999997</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34689.03999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -614,11 +734,29 @@
       <c r="G7" t="n">
         <v>126994.42</v>
       </c>
+      <c r="H7" t="n">
+        <v>4.829999999999927</v>
+      </c>
+      <c r="I7" t="n">
+        <v>569</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.589999999999989</v>
+      </c>
+      <c r="K7" t="n">
+        <v>39352.52</v>
+      </c>
+      <c r="L7" t="n">
+        <v>119.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32280.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -639,61 +777,115 @@
       <c r="G8" t="n">
         <v>33917.94</v>
       </c>
+      <c r="H8" t="n">
+        <v>495.62</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6725</v>
+      </c>
+      <c r="J8" t="n">
+        <v>83.84999999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11141.16</v>
+      </c>
+      <c r="L8" t="n">
+        <v>522.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>33917.94</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>682.83</v>
+        <v>643.78</v>
       </c>
       <c r="C9" t="n">
-        <v>8832</v>
+        <v>8404</v>
       </c>
       <c r="D9" t="n">
-        <v>101.48</v>
+        <v>89.75</v>
       </c>
       <c r="E9" t="n">
-        <v>42034.96</v>
+        <v>23762.88</v>
       </c>
       <c r="F9" t="n">
-        <v>736.53</v>
+        <v>688.47</v>
       </c>
       <c r="G9" t="n">
-        <v>111033.57</v>
+        <v>70536.56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>148.16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1679</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12621.72</v>
+      </c>
+      <c r="L9" t="n">
+        <v>165.85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>36618.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.78</v>
+        <v>682.83</v>
       </c>
       <c r="C10" t="n">
-        <v>8404</v>
+        <v>8832</v>
       </c>
       <c r="D10" t="n">
-        <v>89.75</v>
+        <v>101.48</v>
       </c>
       <c r="E10" t="n">
-        <v>23762.88</v>
+        <v>42034.96</v>
       </c>
       <c r="F10" t="n">
-        <v>688.47</v>
+        <v>736.53</v>
       </c>
       <c r="G10" t="n">
-        <v>70536.56</v>
+        <v>111033.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>39.05000000000007</v>
+      </c>
+      <c r="I10" t="n">
+        <v>428</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18272.08</v>
+      </c>
+      <c r="L10" t="n">
+        <v>48.05999999999995</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40497.01000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -714,11 +906,29 @@
       <c r="G11" t="n">
         <v>162389.74</v>
       </c>
+      <c r="H11" t="n">
+        <v>38.52999999999997</v>
+      </c>
+      <c r="I11" t="n">
+        <v>580</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.189999999999998</v>
+      </c>
+      <c r="K11" t="n">
+        <v>47126.64000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>94.83000000000004</v>
+      </c>
+      <c r="M11" t="n">
+        <v>51356.16999999998</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -739,61 +949,115 @@
       <c r="G12" t="n">
         <v>37358.67</v>
       </c>
+      <c r="H12" t="n">
+        <v>523.46</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6499</v>
+      </c>
+      <c r="J12" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11950.16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>544.03</v>
+      </c>
+      <c r="M12" t="n">
+        <v>37358.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.96</v>
+        <v>655.49</v>
       </c>
       <c r="C13" t="n">
-        <v>8234</v>
+        <v>7921</v>
       </c>
       <c r="D13" t="n">
-        <v>100.88</v>
+        <v>102.13</v>
       </c>
       <c r="E13" t="n">
-        <v>42854.02</v>
+        <v>26412.83</v>
       </c>
       <c r="F13" t="n">
-        <v>836.11</v>
+        <v>695.91</v>
       </c>
       <c r="G13" t="n">
-        <v>118786.22</v>
+        <v>83289.64999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>132.03</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1422</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14462.67</v>
+      </c>
+      <c r="L13" t="n">
+        <v>151.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>45930.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>655.49</v>
+        <v>702.96</v>
       </c>
       <c r="C14" t="n">
-        <v>7921</v>
+        <v>8234</v>
       </c>
       <c r="D14" t="n">
-        <v>102.13</v>
+        <v>100.88</v>
       </c>
       <c r="E14" t="n">
-        <v>26412.83</v>
+        <v>42854.02</v>
       </c>
       <c r="F14" t="n">
-        <v>695.91</v>
+        <v>836.11</v>
       </c>
       <c r="G14" t="n">
-        <v>83289.64999999999</v>
+        <v>118786.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>47.47000000000003</v>
+      </c>
+      <c r="I14" t="n">
+        <v>313</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>16441.19</v>
+      </c>
+      <c r="L14" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>35496.57000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -814,11 +1078,29 @@
       <c r="G15" t="n">
         <v>180635.51</v>
       </c>
+      <c r="H15" t="n">
+        <v>23.99000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>525</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>56844.06</v>
+      </c>
+      <c r="L15" t="n">
+        <v>26.52999999999997</v>
+      </c>
+      <c r="M15" t="n">
+        <v>61849.29000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -839,61 +1121,115 @@
       <c r="G16" t="n">
         <v>42854.18</v>
       </c>
+      <c r="H16" t="n">
+        <v>505.79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6085</v>
+      </c>
+      <c r="J16" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12957.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>563.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>42854.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>659.85</v>
+        <v>618.85</v>
       </c>
       <c r="C17" t="n">
-        <v>7593</v>
+        <v>7351</v>
       </c>
       <c r="D17" t="n">
-        <v>118.88</v>
+        <v>106.82</v>
       </c>
       <c r="E17" t="n">
-        <v>52141.68</v>
+        <v>30044.86</v>
       </c>
       <c r="F17" t="n">
-        <v>732.6</v>
+        <v>683.08</v>
       </c>
       <c r="G17" t="n">
-        <v>154367.45</v>
+        <v>99601.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>113.06</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1266</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.14999999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17087.41</v>
+      </c>
+      <c r="L17" t="n">
+        <v>119.1800000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>56747.62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>618.85</v>
+        <v>659.85</v>
       </c>
       <c r="C18" t="n">
-        <v>7351</v>
+        <v>7593</v>
       </c>
       <c r="D18" t="n">
-        <v>106.82</v>
+        <v>118.88</v>
       </c>
       <c r="E18" t="n">
-        <v>30044.86</v>
+        <v>52141.68</v>
       </c>
       <c r="F18" t="n">
-        <v>683.08</v>
+        <v>732.6</v>
       </c>
       <c r="G18" t="n">
-        <v>99601.8</v>
+        <v>154367.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>41</v>
+      </c>
+      <c r="I18" t="n">
+        <v>242</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22096.82</v>
+      </c>
+      <c r="L18" t="n">
+        <v>49.51999999999998</v>
+      </c>
+      <c r="M18" t="n">
+        <v>54765.65000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -914,11 +1250,29 @@
       <c r="G19" t="n">
         <v>206512.93</v>
       </c>
+      <c r="H19" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>262</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.300000000000011</v>
+      </c>
+      <c r="K19" t="n">
+        <v>52291.71</v>
+      </c>
+      <c r="L19" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>52145.47999999998</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,61 +1293,115 @@
       <c r="G20" t="n">
         <v>51865</v>
       </c>
+      <c r="H20" t="n">
+        <v>527.4400000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6029</v>
+      </c>
+      <c r="J20" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14944</v>
+      </c>
+      <c r="L20" t="n">
+        <v>566.73</v>
+      </c>
+      <c r="M20" t="n">
+        <v>51865</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>696.9</v>
+        <v>648.67</v>
       </c>
       <c r="C21" t="n">
-        <v>7614</v>
+        <v>7351</v>
       </c>
       <c r="D21" t="n">
-        <v>133.4</v>
+        <v>126.6</v>
       </c>
       <c r="E21" t="n">
-        <v>56325</v>
+        <v>34263</v>
       </c>
       <c r="F21" t="n">
-        <v>774.63</v>
+        <v>709.77</v>
       </c>
       <c r="G21" t="n">
-        <v>180605</v>
+        <v>119432</v>
+      </c>
+      <c r="H21" t="n">
+        <v>121.2299999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1322</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.699999999999989</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19319</v>
+      </c>
+      <c r="L21" t="n">
+        <v>143.04</v>
+      </c>
+      <c r="M21" t="n">
+        <v>67567</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>648.67</v>
+        <v>696.9</v>
       </c>
       <c r="C22" t="n">
-        <v>7351</v>
+        <v>7614</v>
       </c>
       <c r="D22" t="n">
-        <v>126.6</v>
+        <v>133.4</v>
       </c>
       <c r="E22" t="n">
-        <v>34263</v>
+        <v>56325</v>
       </c>
       <c r="F22" t="n">
-        <v>709.77</v>
+        <v>774.63</v>
       </c>
       <c r="G22" t="n">
-        <v>119432</v>
+        <v>180605</v>
+      </c>
+      <c r="H22" t="n">
+        <v>48.23000000000002</v>
+      </c>
+      <c r="I22" t="n">
+        <v>263</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.800000000000011</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22062</v>
+      </c>
+      <c r="L22" t="n">
+        <v>64.86000000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>61173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1014,11 +1422,29 @@
       <c r="G23" t="n">
         <v>232572</v>
       </c>
+      <c r="H23" t="n">
+        <v>70.60000000000002</v>
+      </c>
+      <c r="I23" t="n">
+        <v>273</v>
+      </c>
+      <c r="J23" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>48971</v>
+      </c>
+      <c r="L23" t="n">
+        <v>185.03</v>
+      </c>
+      <c r="M23" t="n">
+        <v>51967</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1039,61 +1465,115 @@
       <c r="G24" t="n">
         <v>61228</v>
       </c>
+      <c r="H24" t="n">
+        <v>534.71</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5785</v>
+      </c>
+      <c r="J24" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>16924</v>
+      </c>
+      <c r="L24" t="n">
+        <v>599.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>61228</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.1</v>
+        <v>646.4400000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>6997</v>
+        <v>6779</v>
       </c>
       <c r="D25" t="n">
-        <v>131.4</v>
+        <v>124.8</v>
       </c>
       <c r="E25" t="n">
-        <v>62445</v>
+        <v>39214</v>
       </c>
       <c r="F25" t="n">
-        <v>831.34</v>
+        <v>729.91</v>
       </c>
       <c r="G25" t="n">
-        <v>211209</v>
+        <v>144742</v>
+      </c>
+      <c r="H25" t="n">
+        <v>111.73</v>
+      </c>
+      <c r="I25" t="n">
+        <v>994</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22290</v>
+      </c>
+      <c r="L25" t="n">
+        <v>130.66</v>
+      </c>
+      <c r="M25" t="n">
+        <v>83514</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>646.4400000000001</v>
+        <v>711.1</v>
       </c>
       <c r="C26" t="n">
-        <v>6779</v>
+        <v>6997</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8</v>
+        <v>131.4</v>
       </c>
       <c r="E26" t="n">
-        <v>39214</v>
+        <v>62445</v>
       </c>
       <c r="F26" t="n">
-        <v>729.91</v>
+        <v>831.34</v>
       </c>
       <c r="G26" t="n">
-        <v>144742</v>
+        <v>211209</v>
+      </c>
+      <c r="H26" t="n">
+        <v>64.65999999999997</v>
+      </c>
+      <c r="I26" t="n">
+        <v>218</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.600000000000009</v>
+      </c>
+      <c r="K26" t="n">
+        <v>23231</v>
+      </c>
+      <c r="L26" t="n">
+        <v>101.4300000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>66467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1114,11 +1594,29 @@
       <c r="G27" t="n">
         <v>275319</v>
       </c>
+      <c r="H27" t="n">
+        <v>80.69999999999993</v>
+      </c>
+      <c r="I27" t="n">
+        <v>298</v>
+      </c>
+      <c r="J27" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>52420</v>
+      </c>
+      <c r="L27" t="n">
+        <v>182.5699999999999</v>
+      </c>
+      <c r="M27" t="n">
+        <v>64110</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1139,61 +1637,115 @@
       <c r="G28" t="n">
         <v>71289</v>
       </c>
+      <c r="H28" t="n">
+        <v>551.42</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5686</v>
+      </c>
+      <c r="J28" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>18038</v>
+      </c>
+      <c r="L28" t="n">
+        <v>628.0700000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>71289</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>787.39</v>
+        <v>712.27</v>
       </c>
       <c r="C29" t="n">
-        <v>6743</v>
+        <v>6552</v>
       </c>
       <c r="D29" t="n">
-        <v>122.3</v>
+        <v>120.7</v>
       </c>
       <c r="E29" t="n">
-        <v>58753</v>
+        <v>40871</v>
       </c>
       <c r="F29" t="n">
-        <v>954.5599999999999</v>
+        <v>811.47</v>
       </c>
       <c r="G29" t="n">
-        <v>216174</v>
+        <v>153049</v>
+      </c>
+      <c r="H29" t="n">
+        <v>160.85</v>
+      </c>
+      <c r="I29" t="n">
+        <v>866</v>
+      </c>
+      <c r="J29" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22833</v>
+      </c>
+      <c r="L29" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>81760</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>712.27</v>
+        <v>787.39</v>
       </c>
       <c r="C30" t="n">
-        <v>6552</v>
+        <v>6743</v>
       </c>
       <c r="D30" t="n">
-        <v>120.7</v>
+        <v>122.3</v>
       </c>
       <c r="E30" t="n">
-        <v>40871</v>
+        <v>58753</v>
       </c>
       <c r="F30" t="n">
-        <v>811.47</v>
+        <v>954.5599999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>153049</v>
+        <v>216174</v>
+      </c>
+      <c r="H30" t="n">
+        <v>75.12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>191</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="K30" t="n">
+        <v>17882</v>
+      </c>
+      <c r="L30" t="n">
+        <v>143.0899999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>63125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1214,11 +1766,29 @@
       <c r="G31" t="n">
         <v>293798</v>
       </c>
+      <c r="H31" t="n">
+        <v>108.51</v>
+      </c>
+      <c r="I31" t="n">
+        <v>196</v>
+      </c>
+      <c r="J31" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>53715</v>
+      </c>
+      <c r="L31" t="n">
+        <v>179.74</v>
+      </c>
+      <c r="M31" t="n">
+        <v>77624</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1239,61 +1809,115 @@
       <c r="G32" t="n">
         <v>77700</v>
       </c>
+      <c r="H32" t="n">
+        <v>609.83</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5655</v>
+      </c>
+      <c r="J32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>18607</v>
+      </c>
+      <c r="L32" t="n">
+        <v>695.73</v>
+      </c>
+      <c r="M32" t="n">
+        <v>77700</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>853.0599999999999</v>
+        <v>731.51</v>
       </c>
       <c r="C33" t="n">
-        <v>6572</v>
+        <v>6417</v>
       </c>
       <c r="D33" t="n">
-        <v>153.6</v>
+        <v>152.6</v>
       </c>
       <c r="E33" t="n">
-        <v>65176</v>
+        <v>41351</v>
       </c>
       <c r="F33" t="n">
-        <v>1027.98</v>
+        <v>873.6</v>
       </c>
       <c r="G33" t="n">
-        <v>241567</v>
+        <v>172355</v>
+      </c>
+      <c r="H33" t="n">
+        <v>121.6799999999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>762</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.099999999999994</v>
+      </c>
+      <c r="K33" t="n">
+        <v>22744</v>
+      </c>
+      <c r="L33" t="n">
+        <v>177.87</v>
+      </c>
+      <c r="M33" t="n">
+        <v>94655</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>731.51</v>
+        <v>853.0599999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>6417</v>
+        <v>6572</v>
       </c>
       <c r="D34" t="n">
-        <v>152.6</v>
+        <v>153.6</v>
       </c>
       <c r="E34" t="n">
-        <v>41351</v>
+        <v>65176</v>
       </c>
       <c r="F34" t="n">
-        <v>873.6</v>
+        <v>1027.98</v>
       </c>
       <c r="G34" t="n">
-        <v>172355</v>
+        <v>241567</v>
+      </c>
+      <c r="H34" t="n">
+        <v>121.55</v>
+      </c>
+      <c r="I34" t="n">
+        <v>155</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>23825</v>
+      </c>
+      <c r="L34" t="n">
+        <v>154.38</v>
+      </c>
+      <c r="M34" t="n">
+        <v>69212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1314,11 +1938,29 @@
       <c r="G35" t="n">
         <v>311937</v>
       </c>
+      <c r="H35" t="n">
+        <v>56.31000000000006</v>
+      </c>
+      <c r="I35" t="n">
+        <v>168</v>
+      </c>
+      <c r="J35" t="n">
+        <v>149</v>
+      </c>
+      <c r="K35" t="n">
+        <v>51310</v>
+      </c>
+      <c r="L35" t="n">
+        <v>217.8799999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>70370</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1339,61 +1981,115 @@
       <c r="G36" t="n">
         <v>95840</v>
       </c>
+      <c r="H36" t="n">
+        <v>516.39</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5822</v>
+      </c>
+      <c r="J36" t="n">
+        <v>69.69999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>23897</v>
+      </c>
+      <c r="L36" t="n">
+        <v>635.28</v>
+      </c>
+      <c r="M36" t="n">
+        <v>95840</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>689.89</v>
+        <v>613.09</v>
       </c>
       <c r="C37" t="n">
-        <v>6769</v>
+        <v>6635</v>
       </c>
       <c r="D37" t="n">
-        <v>233.6</v>
+        <v>232.7</v>
       </c>
       <c r="E37" t="n">
-        <v>89204</v>
+        <v>56631</v>
       </c>
       <c r="F37" t="n">
-        <v>854.74</v>
+        <v>745.62</v>
       </c>
       <c r="G37" t="n">
-        <v>336009</v>
+        <v>228482</v>
+      </c>
+      <c r="H37" t="n">
+        <v>96.70000000000005</v>
+      </c>
+      <c r="I37" t="n">
+        <v>813</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32734</v>
+      </c>
+      <c r="L37" t="n">
+        <v>110.34</v>
+      </c>
+      <c r="M37" t="n">
+        <v>132642</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>613.09</v>
+        <v>689.89</v>
       </c>
       <c r="C38" t="n">
-        <v>6635</v>
+        <v>6769</v>
       </c>
       <c r="D38" t="n">
-        <v>232.7</v>
+        <v>233.6</v>
       </c>
       <c r="E38" t="n">
-        <v>56631</v>
+        <v>89204</v>
       </c>
       <c r="F38" t="n">
-        <v>745.62</v>
+        <v>854.74</v>
       </c>
       <c r="G38" t="n">
-        <v>228482</v>
+        <v>336009</v>
+      </c>
+      <c r="H38" t="n">
+        <v>76.79999999999995</v>
+      </c>
+      <c r="I38" t="n">
+        <v>134</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="K38" t="n">
+        <v>32573</v>
+      </c>
+      <c r="L38" t="n">
+        <v>109.12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>107527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1414,11 +2110,29 @@
       <c r="G39" t="n">
         <v>408835</v>
       </c>
+      <c r="H39" t="n">
+        <v>45.66999999999996</v>
+      </c>
+      <c r="I39" t="n">
+        <v>188</v>
+      </c>
+      <c r="J39" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>72824</v>
+      </c>
+      <c r="L39" t="n">
+        <v>208.04</v>
+      </c>
+      <c r="M39" t="n">
+        <v>72826</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1439,61 +2153,115 @@
       <c r="G40" t="n">
         <v>114045</v>
       </c>
+      <c r="H40" t="n">
+        <v>559.16</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5990</v>
+      </c>
+      <c r="J40" t="n">
+        <v>54.70000000000002</v>
+      </c>
+      <c r="K40" t="n">
+        <v>30980</v>
+      </c>
+      <c r="L40" t="n">
+        <v>615.38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>114045</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>704</v>
+        <v>658.0700000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>6843</v>
+        <v>6688</v>
       </c>
       <c r="D41" t="n">
-        <v>267.9</v>
+        <v>254.5</v>
       </c>
       <c r="E41" t="n">
-        <v>102888</v>
+        <v>64493</v>
       </c>
       <c r="F41" t="n">
-        <v>881.96</v>
+        <v>813.8</v>
       </c>
       <c r="G41" t="n">
-        <v>369858</v>
+        <v>242053</v>
+      </c>
+      <c r="H41" t="n">
+        <v>98.91000000000008</v>
+      </c>
+      <c r="I41" t="n">
+        <v>698</v>
+      </c>
+      <c r="J41" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>33513</v>
+      </c>
+      <c r="L41" t="n">
+        <v>198.42</v>
+      </c>
+      <c r="M41" t="n">
+        <v>128008</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>658.0700000000001</v>
+        <v>704</v>
       </c>
       <c r="C42" t="n">
-        <v>6688</v>
+        <v>6843</v>
       </c>
       <c r="D42" t="n">
-        <v>254.5</v>
+        <v>267.9</v>
       </c>
       <c r="E42" t="n">
-        <v>64493</v>
+        <v>102888</v>
       </c>
       <c r="F42" t="n">
-        <v>813.8</v>
+        <v>881.96</v>
       </c>
       <c r="G42" t="n">
-        <v>242053</v>
+        <v>369858</v>
+      </c>
+      <c r="H42" t="n">
+        <v>45.92999999999995</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13.39999999999998</v>
+      </c>
+      <c r="K42" t="n">
+        <v>38395</v>
+      </c>
+      <c r="L42" t="n">
+        <v>68.16000000000008</v>
+      </c>
+      <c r="M42" t="n">
+        <v>127805</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1514,11 +2282,29 @@
       <c r="G43" t="n">
         <v>470897</v>
       </c>
+      <c r="H43" t="n">
+        <v>19.10000000000002</v>
+      </c>
+      <c r="I43" t="n">
+        <v>195</v>
+      </c>
+      <c r="J43" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>93381</v>
+      </c>
+      <c r="L43" t="n">
+        <v>156.26</v>
+      </c>
+      <c r="M43" t="n">
+        <v>101039</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1539,61 +2325,115 @@
       <c r="G44" t="n">
         <v>107654</v>
       </c>
+      <c r="H44" t="n">
+        <v>582.0700000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6015</v>
+      </c>
+      <c r="J44" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>28031</v>
+      </c>
+      <c r="L44" t="n">
+        <v>747.29</v>
+      </c>
+      <c r="M44" t="n">
+        <v>107654</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>696.38</v>
+        <v>665.76</v>
       </c>
       <c r="C45" t="n">
-        <v>6724</v>
+        <v>6628</v>
       </c>
       <c r="D45" t="n">
-        <v>250.7</v>
+        <v>263.9</v>
       </c>
       <c r="E45" t="n">
-        <v>93924</v>
+        <v>65094</v>
       </c>
       <c r="F45" t="n">
-        <v>1070.78</v>
+        <v>934.83</v>
       </c>
       <c r="G45" t="n">
-        <v>335232</v>
+        <v>236541</v>
+      </c>
+      <c r="H45" t="n">
+        <v>83.68999999999994</v>
+      </c>
+      <c r="I45" t="n">
+        <v>613</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.399999999999977</v>
+      </c>
+      <c r="K45" t="n">
+        <v>37063</v>
+      </c>
+      <c r="L45" t="n">
+        <v>187.5400000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>128887</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.76</v>
+        <v>696.38</v>
       </c>
       <c r="C46" t="n">
-        <v>6628</v>
+        <v>6724</v>
       </c>
       <c r="D46" t="n">
-        <v>263.9</v>
+        <v>250.7</v>
       </c>
       <c r="E46" t="n">
-        <v>65094</v>
+        <v>93924</v>
       </c>
       <c r="F46" t="n">
-        <v>934.83</v>
+        <v>1070.78</v>
       </c>
       <c r="G46" t="n">
-        <v>236541</v>
+        <v>335232</v>
+      </c>
+      <c r="H46" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="I46" t="n">
+        <v>96</v>
+      </c>
+      <c r="J46" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28830</v>
+      </c>
+      <c r="L46" t="n">
+        <v>135.9499999999999</v>
+      </c>
+      <c r="M46" t="n">
+        <v>98691</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1614,11 +2454,29 @@
       <c r="G47" t="n">
         <v>446890.3</v>
       </c>
+      <c r="H47" t="n">
+        <v>242.62</v>
+      </c>
+      <c r="I47" t="n">
+        <v>131</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
+      <c r="K47" t="n">
+        <v>95751.79999999999</v>
+      </c>
+      <c r="L47" t="n">
+        <v>110.4200000000001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>111658.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1639,61 +2497,115 @@
       <c r="G48" t="n">
         <v>117893</v>
       </c>
+      <c r="H48" t="n">
+        <v>674.35</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5849</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43.30000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31949</v>
+      </c>
+      <c r="L48" t="n">
+        <v>739.65</v>
+      </c>
+      <c r="M48" t="n">
+        <v>117893</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>853.24</v>
+        <v>777.9299999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>6637</v>
+        <v>6457</v>
       </c>
       <c r="D49" t="n">
-        <v>293.2</v>
+        <v>306.1</v>
       </c>
       <c r="E49" t="n">
-        <v>113724</v>
+        <v>73788</v>
       </c>
       <c r="F49" t="n">
-        <v>1001.91</v>
+        <v>868.42</v>
       </c>
       <c r="G49" t="n">
-        <v>368042</v>
+        <v>261373</v>
+      </c>
+      <c r="H49" t="n">
+        <v>103.5799999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>608</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.100000000000023</v>
+      </c>
+      <c r="K49" t="n">
+        <v>41839</v>
+      </c>
+      <c r="L49" t="n">
+        <v>128.77</v>
+      </c>
+      <c r="M49" t="n">
+        <v>143480</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>777.9299999999999</v>
+        <v>853.24</v>
       </c>
       <c r="C50" t="n">
-        <v>6457</v>
+        <v>6637</v>
       </c>
       <c r="D50" t="n">
-        <v>306.1</v>
+        <v>293.2</v>
       </c>
       <c r="E50" t="n">
-        <v>73788</v>
+        <v>113724</v>
       </c>
       <c r="F50" t="n">
-        <v>868.42</v>
+        <v>1001.91</v>
       </c>
       <c r="G50" t="n">
-        <v>261373</v>
+        <v>368042</v>
+      </c>
+      <c r="H50" t="n">
+        <v>75.31000000000006</v>
+      </c>
+      <c r="I50" t="n">
+        <v>180</v>
+      </c>
+      <c r="J50" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39936</v>
+      </c>
+      <c r="L50" t="n">
+        <v>133.49</v>
+      </c>
+      <c r="M50" t="n">
+        <v>106669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1714,11 +2626,29 @@
       <c r="G51" t="n">
         <v>470315</v>
       </c>
+      <c r="H51" t="n">
+        <v>61.25999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>152</v>
+      </c>
+      <c r="J51" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>99444</v>
+      </c>
+      <c r="L51" t="n">
+        <v>164.89</v>
+      </c>
+      <c r="M51" t="n">
+        <v>102273</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1739,61 +2669,115 @@
       <c r="G52" t="n">
         <v>120526</v>
       </c>
+      <c r="H52" t="n">
+        <v>691.28</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5959</v>
+      </c>
+      <c r="J52" t="n">
+        <v>34</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37347</v>
+      </c>
+      <c r="L52" t="n">
+        <v>754.22</v>
+      </c>
+      <c r="M52" t="n">
+        <v>120526</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>887.49</v>
+        <v>822.3099999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>6665</v>
+        <v>6502</v>
       </c>
       <c r="D53" t="n">
-        <v>307.9</v>
+        <v>309.7</v>
       </c>
       <c r="E53" t="n">
-        <v>118667</v>
+        <v>81377</v>
       </c>
       <c r="F53" t="n">
-        <v>1021.89999999999</v>
+        <v>924.53</v>
       </c>
       <c r="G53" t="n">
-        <v>388536</v>
+        <v>265481</v>
+      </c>
+      <c r="H53" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="I53" t="n">
+        <v>543</v>
+      </c>
+      <c r="J53" t="n">
+        <v>309.7</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44030</v>
+      </c>
+      <c r="L53" t="n">
+        <v>170.3099999999999</v>
+      </c>
+      <c r="M53" t="n">
+        <v>144955</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>822.3099999999999</v>
+        <v>887.49</v>
       </c>
       <c r="C54" t="n">
-        <v>6502</v>
+        <v>6665</v>
       </c>
       <c r="D54" t="n">
-        <v>309.7</v>
+        <v>307.9</v>
       </c>
       <c r="E54" t="n">
-        <v>81377</v>
+        <v>118667</v>
       </c>
       <c r="F54" t="n">
-        <v>924.53</v>
+        <v>1021.89999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>265481</v>
+        <v>388536</v>
+      </c>
+      <c r="H54" t="n">
+        <v>65.18000000000006</v>
+      </c>
+      <c r="I54" t="n">
+        <v>163</v>
+      </c>
+      <c r="J54" t="n">
+        <v>307.9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>37290</v>
+      </c>
+      <c r="L54" t="n">
+        <v>97.36999999999</v>
+      </c>
+      <c r="M54" t="n">
+        <v>123055</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1814,11 +2798,29 @@
       <c r="G55" t="n">
         <v>484633</v>
       </c>
+      <c r="H55" t="n">
+        <v>87.66999999999996</v>
+      </c>
+      <c r="I55" t="n">
+        <v>149</v>
+      </c>
+      <c r="J55" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>92687</v>
+      </c>
+      <c r="L55" t="n">
+        <v>206.2000000000099</v>
+      </c>
+      <c r="M55" t="n">
+        <v>96097</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1839,61 +2841,115 @@
       <c r="G56" t="n">
         <v>124415</v>
       </c>
+      <c r="H56" t="n">
+        <v>717.9</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5941</v>
+      </c>
+      <c r="J56" t="n">
+        <v>27.60000000000002</v>
+      </c>
+      <c r="K56" t="n">
+        <v>38434</v>
+      </c>
+      <c r="L56" t="n">
+        <v>814.78</v>
+      </c>
+      <c r="M56" t="n">
+        <v>124415</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>910.79</v>
+        <v>857.36</v>
       </c>
       <c r="C57" t="n">
-        <v>6707</v>
+        <v>6580</v>
       </c>
       <c r="D57" t="n">
-        <v>321.4</v>
+        <v>309.4</v>
       </c>
       <c r="E57" t="n">
-        <v>120354</v>
+        <v>79150</v>
       </c>
       <c r="F57" t="n">
-        <v>1071.22</v>
+        <v>980.79</v>
       </c>
       <c r="G57" t="n">
-        <v>422901</v>
+        <v>290210</v>
+      </c>
+      <c r="H57" t="n">
+        <v>139.46</v>
+      </c>
+      <c r="I57" t="n">
+        <v>639</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.599999999999966</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40716</v>
+      </c>
+      <c r="L57" t="n">
+        <v>166.01</v>
+      </c>
+      <c r="M57" t="n">
+        <v>165795</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>857.36</v>
+        <v>910.79</v>
       </c>
       <c r="C58" t="n">
-        <v>6580</v>
+        <v>6707</v>
       </c>
       <c r="D58" t="n">
-        <v>309.4</v>
+        <v>321.4</v>
       </c>
       <c r="E58" t="n">
-        <v>79150</v>
+        <v>120354</v>
       </c>
       <c r="F58" t="n">
-        <v>980.79</v>
+        <v>1071.22</v>
       </c>
       <c r="G58" t="n">
-        <v>290210</v>
+        <v>422901</v>
+      </c>
+      <c r="H58" t="n">
+        <v>53.42999999999995</v>
+      </c>
+      <c r="I58" t="n">
+        <v>127</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>41204</v>
+      </c>
+      <c r="L58" t="n">
+        <v>90.43000000000006</v>
+      </c>
+      <c r="M58" t="n">
+        <v>132691</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1914,11 +2970,29 @@
       <c r="G59" t="n">
         <v>508796</v>
       </c>
+      <c r="H59" t="n">
+        <v>119.72</v>
+      </c>
+      <c r="I59" t="n">
+        <v>93</v>
+      </c>
+      <c r="J59" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79935</v>
+      </c>
+      <c r="L59" t="n">
+        <v>260.48</v>
+      </c>
+      <c r="M59" t="n">
+        <v>85895</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1939,61 +3013,115 @@
       <c r="G60" t="n">
         <v>136876</v>
       </c>
+      <c r="H60" t="n">
+        <v>761.4299999999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5906</v>
+      </c>
+      <c r="J60" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>37715</v>
+      </c>
+      <c r="L60" t="n">
+        <v>853.4400000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>136876</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>927.36</v>
+        <v>866.05</v>
       </c>
       <c r="C61" t="n">
-        <v>6688</v>
+        <v>6502</v>
       </c>
       <c r="D61" t="n">
-        <v>324.6</v>
+        <v>332.7</v>
       </c>
       <c r="E61" t="n">
-        <v>113082</v>
+        <v>74409</v>
       </c>
       <c r="F61" t="n">
-        <v>1120.84</v>
+        <v>1022.09</v>
       </c>
       <c r="G61" t="n">
-        <v>445305</v>
+        <v>305380</v>
+      </c>
+      <c r="H61" t="n">
+        <v>104.62</v>
+      </c>
+      <c r="I61" t="n">
+        <v>596</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12.80000000000001</v>
+      </c>
+      <c r="K61" t="n">
+        <v>36694</v>
+      </c>
+      <c r="L61" t="n">
+        <v>168.65</v>
+      </c>
+      <c r="M61" t="n">
+        <v>168504</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>866.05</v>
+        <v>927.36</v>
       </c>
       <c r="C62" t="n">
-        <v>6502</v>
+        <v>6688</v>
       </c>
       <c r="D62" t="n">
-        <v>332.7</v>
+        <v>324.6</v>
       </c>
       <c r="E62" t="n">
-        <v>74409</v>
+        <v>113082</v>
       </c>
       <c r="F62" t="n">
-        <v>1022.09</v>
+        <v>1120.84</v>
       </c>
       <c r="G62" t="n">
-        <v>305380</v>
+        <v>445305</v>
+      </c>
+      <c r="H62" t="n">
+        <v>61.31000000000006</v>
+      </c>
+      <c r="I62" t="n">
+        <v>186</v>
+      </c>
+      <c r="J62" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>38673</v>
+      </c>
+      <c r="L62" t="n">
+        <v>98.74999999999989</v>
+      </c>
+      <c r="M62" t="n">
+        <v>139925</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2014,11 +3142,29 @@
       <c r="G63" t="n">
         <v>549950</v>
       </c>
+      <c r="H63" t="n">
+        <v>145.5099999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>192</v>
+      </c>
+      <c r="J63" t="n">
+        <v>295.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>85122</v>
+      </c>
+      <c r="L63" t="n">
+        <v>260.1900000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>104645</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2039,61 +3185,115 @@
       <c r="G64" t="n">
         <v>146891</v>
       </c>
+      <c r="H64" t="n">
+        <v>805.58</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6005</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29.29999999999995</v>
+      </c>
+      <c r="K64" t="n">
+        <v>38543</v>
+      </c>
+      <c r="L64" t="n">
+        <v>923.97</v>
+      </c>
+      <c r="M64" t="n">
+        <v>146891</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>986.1900000000001</v>
+        <v>906.45</v>
       </c>
       <c r="C65" t="n">
-        <v>6793</v>
+        <v>6490</v>
       </c>
       <c r="D65" t="n">
-        <v>333</v>
+        <v>333.4</v>
       </c>
       <c r="E65" t="n">
-        <v>131239</v>
+        <v>83592</v>
       </c>
       <c r="F65" t="n">
-        <v>1212.64</v>
+        <v>1077.05</v>
       </c>
       <c r="G65" t="n">
-        <v>480219</v>
+        <v>337109</v>
+      </c>
+      <c r="H65" t="n">
+        <v>100.87</v>
+      </c>
+      <c r="I65" t="n">
+        <v>485</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>45049</v>
+      </c>
+      <c r="L65" t="n">
+        <v>153.0799999999999</v>
+      </c>
+      <c r="M65" t="n">
+        <v>190218</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>906.45</v>
+        <v>986.1900000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>6490</v>
+        <v>6793</v>
       </c>
       <c r="D66" t="n">
-        <v>333.4</v>
+        <v>333</v>
       </c>
       <c r="E66" t="n">
-        <v>83592</v>
+        <v>131239</v>
       </c>
       <c r="F66" t="n">
-        <v>1077.05</v>
+        <v>1212.64</v>
       </c>
       <c r="G66" t="n">
-        <v>337109</v>
+        <v>480219</v>
+      </c>
+      <c r="H66" t="n">
+        <v>79.74000000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>303</v>
+      </c>
+      <c r="J66" t="n">
+        <v>333</v>
+      </c>
+      <c r="K66" t="n">
+        <v>47647</v>
+      </c>
+      <c r="L66" t="n">
+        <v>135.5900000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>143110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2114,11 +3314,29 @@
       <c r="G67" t="n">
         <v>596932</v>
       </c>
+      <c r="H67" t="n">
+        <v>95</v>
+      </c>
+      <c r="I67" t="n">
+        <v>134</v>
+      </c>
+      <c r="J67" t="n">
+        <v>318.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>89704</v>
+      </c>
+      <c r="L67" t="n">
+        <v>217.4599999999998</v>
+      </c>
+      <c r="M67" t="n">
+        <v>116713</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2139,61 +3357,115 @@
       <c r="G68" t="n">
         <v>143940</v>
       </c>
+      <c r="H68" t="n">
+        <v>728.79</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5949</v>
+      </c>
+      <c r="J68" t="n">
+        <v>83.69999999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>33594</v>
+      </c>
+      <c r="L68" t="n">
+        <v>831.1900000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>143940</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1001.2</v>
+        <v>900.3200000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>6933</v>
+        <v>6642</v>
       </c>
       <c r="D69" t="n">
-        <v>351.6</v>
+        <v>390</v>
       </c>
       <c r="E69" t="n">
-        <v>122676</v>
+        <v>78183</v>
       </c>
       <c r="F69" t="n">
-        <v>1240.93</v>
+        <v>1077.27</v>
       </c>
       <c r="G69" t="n">
-        <v>506996</v>
+        <v>350979</v>
+      </c>
+      <c r="H69" t="n">
+        <v>171.5300000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>693</v>
+      </c>
+      <c r="J69" t="n">
+        <v>390</v>
+      </c>
+      <c r="K69" t="n">
+        <v>44589</v>
+      </c>
+      <c r="L69" t="n">
+        <v>246.0799999999999</v>
+      </c>
+      <c r="M69" t="n">
+        <v>207039</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>900.3200000000001</v>
+        <v>1001.2</v>
       </c>
       <c r="C70" t="n">
-        <v>6642</v>
+        <v>6933</v>
       </c>
       <c r="D70" t="n">
-        <v>390</v>
+        <v>351.6</v>
       </c>
       <c r="E70" t="n">
-        <v>78183</v>
+        <v>122676</v>
       </c>
       <c r="F70" t="n">
-        <v>1077.27</v>
+        <v>1240.93</v>
       </c>
       <c r="G70" t="n">
-        <v>350979</v>
+        <v>506996</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100.88</v>
+      </c>
+      <c r="I70" t="n">
+        <v>291</v>
+      </c>
+      <c r="J70" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>44493</v>
+      </c>
+      <c r="L70" t="n">
+        <v>163.6600000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>156017</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2214,11 +3486,29 @@
       <c r="G71" t="n">
         <v>623357</v>
       </c>
+      <c r="H71" t="n">
+        <v>157.29</v>
+      </c>
+      <c r="I71" t="n">
+        <v>257</v>
+      </c>
+      <c r="J71" t="n">
+        <v>328.6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89870</v>
+      </c>
+      <c r="L71" t="n">
+        <v>297.6199999999999</v>
+      </c>
+      <c r="M71" t="n">
+        <v>116361</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2239,61 +3529,115 @@
       <c r="G72" t="n">
         <v>181553</v>
       </c>
+      <c r="H72" t="n">
+        <v>781.9400000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6254</v>
+      </c>
+      <c r="J72" t="n">
+        <v>76.19999999999999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>49341</v>
+      </c>
+      <c r="L72" t="n">
+        <v>920.9400000000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>181553</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1021.79</v>
+        <v>940.58</v>
       </c>
       <c r="C73" t="n">
-        <v>7465</v>
+        <v>6926</v>
       </c>
       <c r="D73" t="n">
-        <v>375.9</v>
+        <v>383</v>
       </c>
       <c r="E73" t="n">
-        <v>151997</v>
+        <v>99920</v>
       </c>
       <c r="F73" t="n">
-        <v>1345.47</v>
+        <v>1175.05</v>
       </c>
       <c r="G73" t="n">
-        <v>553493</v>
+        <v>392593</v>
+      </c>
+      <c r="H73" t="n">
+        <v>158.64</v>
+      </c>
+      <c r="I73" t="n">
+        <v>672</v>
+      </c>
+      <c r="J73" t="n">
+        <v>383</v>
+      </c>
+      <c r="K73" t="n">
+        <v>50579</v>
+      </c>
+      <c r="L73" t="n">
+        <v>254.1099999999999</v>
+      </c>
+      <c r="M73" t="n">
+        <v>211040</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>940.58</v>
+        <v>1021.79</v>
       </c>
       <c r="C74" t="n">
-        <v>6926</v>
+        <v>7465</v>
       </c>
       <c r="D74" t="n">
-        <v>383</v>
+        <v>375.9</v>
       </c>
       <c r="E74" t="n">
-        <v>99920</v>
+        <v>151997</v>
       </c>
       <c r="F74" t="n">
-        <v>1175.05</v>
+        <v>1345.47</v>
       </c>
       <c r="G74" t="n">
-        <v>392593</v>
+        <v>553493</v>
+      </c>
+      <c r="H74" t="n">
+        <v>81.20999999999992</v>
+      </c>
+      <c r="I74" t="n">
+        <v>539</v>
+      </c>
+      <c r="J74" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="K74" t="n">
+        <v>52077</v>
+      </c>
+      <c r="L74" t="n">
+        <v>170.4200000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>160900</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2313,6 +3657,24 @@
       </c>
       <c r="G75" t="n">
         <v>681110</v>
+      </c>
+      <c r="H75" t="n">
+        <v>179.6000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>361</v>
+      </c>
+      <c r="J75" t="n">
+        <v>343</v>
+      </c>
+      <c r="K75" t="n">
+        <v>99567</v>
+      </c>
+      <c r="L75" t="n">
+        <v>276.3799999999999</v>
+      </c>
+      <c r="M75" t="n">
+        <v>127617</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业个数、从业人数和劳动生产率.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业个数、从业人数和劳动生产率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,6 @@
           <t>国有及国有控股建筑业按总产值计算劳动生产率_累计值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业人员数</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业单位数</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业建筑业人均施工面积</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业建筑业人均竣工产值</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业直接从事生产经营活动的平均人数</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业按总产值计算劳动生产率</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,24 +489,6 @@
       <c r="G2" t="n">
         <v>49921.42</v>
       </c>
-      <c r="H2" t="n">
-        <v>693.3200000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9841</v>
-      </c>
-      <c r="J2" t="n">
-        <v>74.65000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18531.67</v>
-      </c>
-      <c r="L2" t="n">
-        <v>705.92</v>
-      </c>
-      <c r="M2" t="n">
-        <v>49921.42</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -562,24 +514,6 @@
       <c r="G3" t="n">
         <v>109053.49</v>
       </c>
-      <c r="H3" t="n">
-        <v>54.59999999999991</v>
-      </c>
-      <c r="I3" t="n">
-        <v>231</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="K3" t="n">
-        <v>53392.48</v>
-      </c>
-      <c r="L3" t="n">
-        <v>142.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>59132.07000000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -605,109 +539,55 @@
       <c r="G4" t="n">
         <v>29684.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>516.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75.18000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9924.42</v>
-      </c>
-      <c r="L4" t="n">
-        <v>539.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29684.2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>662.58</v>
+        <v>752.5700000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>8769</v>
+        <v>8986</v>
       </c>
       <c r="D5" t="n">
-        <v>79.05</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>20798.81</v>
+        <v>38009.08</v>
       </c>
       <c r="F5" t="n">
-        <v>705.8200000000001</v>
+        <v>747.35</v>
       </c>
       <c r="G5" t="n">
-        <v>60024.75</v>
-      </c>
-      <c r="H5" t="n">
-        <v>146.5300000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1285</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.86999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10874.39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>166.47</v>
-      </c>
-      <c r="M5" t="n">
-        <v>30340.55</v>
+        <v>94713.78999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752.5700000000001</v>
+        <v>662.58</v>
       </c>
       <c r="C6" t="n">
-        <v>8986</v>
+        <v>8769</v>
       </c>
       <c r="D6" t="n">
-        <v>88.79000000000001</v>
+        <v>79.05</v>
       </c>
       <c r="E6" t="n">
-        <v>38009.08</v>
+        <v>20798.81</v>
       </c>
       <c r="F6" t="n">
-        <v>747.35</v>
+        <v>705.8200000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>94713.78999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>89.99000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>217</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.740000000000009</v>
-      </c>
-      <c r="K6" t="n">
-        <v>17210.27</v>
-      </c>
-      <c r="L6" t="n">
-        <v>41.52999999999997</v>
-      </c>
-      <c r="M6" t="n">
-        <v>34689.03999999999</v>
+        <v>60024.75</v>
       </c>
     </row>
     <row r="7">
@@ -734,24 +614,6 @@
       <c r="G7" t="n">
         <v>126994.42</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.829999999999927</v>
-      </c>
-      <c r="I7" t="n">
-        <v>569</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.589999999999989</v>
-      </c>
-      <c r="K7" t="n">
-        <v>39352.52</v>
-      </c>
-      <c r="L7" t="n">
-        <v>119.51</v>
-      </c>
-      <c r="M7" t="n">
-        <v>32280.63</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -777,109 +639,55 @@
       <c r="G8" t="n">
         <v>33917.94</v>
       </c>
-      <c r="H8" t="n">
-        <v>495.62</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6725</v>
-      </c>
-      <c r="J8" t="n">
-        <v>83.84999999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11141.16</v>
-      </c>
-      <c r="L8" t="n">
-        <v>522.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>33917.94</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>643.78</v>
+        <v>682.83</v>
       </c>
       <c r="C9" t="n">
-        <v>8404</v>
+        <v>8832</v>
       </c>
       <c r="D9" t="n">
-        <v>89.75</v>
+        <v>101.48</v>
       </c>
       <c r="E9" t="n">
-        <v>23762.88</v>
+        <v>42034.96</v>
       </c>
       <c r="F9" t="n">
-        <v>688.47</v>
+        <v>736.53</v>
       </c>
       <c r="G9" t="n">
-        <v>70536.56</v>
-      </c>
-      <c r="H9" t="n">
-        <v>148.16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1679</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.900000000000006</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12621.72</v>
-      </c>
-      <c r="L9" t="n">
-        <v>165.85</v>
-      </c>
-      <c r="M9" t="n">
-        <v>36618.62</v>
+        <v>111033.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.83</v>
+        <v>643.78</v>
       </c>
       <c r="C10" t="n">
-        <v>8832</v>
+        <v>8404</v>
       </c>
       <c r="D10" t="n">
-        <v>101.48</v>
+        <v>89.75</v>
       </c>
       <c r="E10" t="n">
-        <v>42034.96</v>
+        <v>23762.88</v>
       </c>
       <c r="F10" t="n">
-        <v>736.53</v>
+        <v>688.47</v>
       </c>
       <c r="G10" t="n">
-        <v>111033.57</v>
-      </c>
-      <c r="H10" t="n">
-        <v>39.05000000000007</v>
-      </c>
-      <c r="I10" t="n">
-        <v>428</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K10" t="n">
-        <v>18272.08</v>
-      </c>
-      <c r="L10" t="n">
-        <v>48.05999999999995</v>
-      </c>
-      <c r="M10" t="n">
-        <v>40497.01000000001</v>
+        <v>70536.56</v>
       </c>
     </row>
     <row r="11">
@@ -906,24 +714,6 @@
       <c r="G11" t="n">
         <v>162389.74</v>
       </c>
-      <c r="H11" t="n">
-        <v>38.52999999999997</v>
-      </c>
-      <c r="I11" t="n">
-        <v>580</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.189999999999998</v>
-      </c>
-      <c r="K11" t="n">
-        <v>47126.64000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>94.83000000000004</v>
-      </c>
-      <c r="M11" t="n">
-        <v>51356.16999999998</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -949,109 +739,55 @@
       <c r="G12" t="n">
         <v>37358.67</v>
       </c>
-      <c r="H12" t="n">
-        <v>523.46</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6499</v>
-      </c>
-      <c r="J12" t="n">
-        <v>89.48999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11950.16</v>
-      </c>
-      <c r="L12" t="n">
-        <v>544.03</v>
-      </c>
-      <c r="M12" t="n">
-        <v>37358.67</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.49</v>
+        <v>702.96</v>
       </c>
       <c r="C13" t="n">
-        <v>7921</v>
+        <v>8234</v>
       </c>
       <c r="D13" t="n">
-        <v>102.13</v>
+        <v>100.88</v>
       </c>
       <c r="E13" t="n">
-        <v>26412.83</v>
+        <v>42854.02</v>
       </c>
       <c r="F13" t="n">
-        <v>695.91</v>
+        <v>836.11</v>
       </c>
       <c r="G13" t="n">
-        <v>83289.64999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>132.03</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1422</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14462.67</v>
-      </c>
-      <c r="L13" t="n">
-        <v>151.88</v>
-      </c>
-      <c r="M13" t="n">
-        <v>45930.98</v>
+        <v>118786.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>702.96</v>
+        <v>655.49</v>
       </c>
       <c r="C14" t="n">
-        <v>8234</v>
+        <v>7921</v>
       </c>
       <c r="D14" t="n">
-        <v>100.88</v>
+        <v>102.13</v>
       </c>
       <c r="E14" t="n">
-        <v>42854.02</v>
+        <v>26412.83</v>
       </c>
       <c r="F14" t="n">
-        <v>836.11</v>
+        <v>695.91</v>
       </c>
       <c r="G14" t="n">
-        <v>118786.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>47.47000000000003</v>
-      </c>
-      <c r="I14" t="n">
-        <v>313</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16441.19</v>
-      </c>
-      <c r="L14" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>35496.57000000001</v>
+        <v>83289.64999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1078,24 +814,6 @@
       <c r="G15" t="n">
         <v>180635.51</v>
       </c>
-      <c r="H15" t="n">
-        <v>23.99000000000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>525</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>56844.06</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26.52999999999997</v>
-      </c>
-      <c r="M15" t="n">
-        <v>61849.29000000001</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1121,109 +839,55 @@
       <c r="G16" t="n">
         <v>42854.18</v>
       </c>
-      <c r="H16" t="n">
-        <v>505.79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6085</v>
-      </c>
-      <c r="J16" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12957.45</v>
-      </c>
-      <c r="L16" t="n">
-        <v>563.9</v>
-      </c>
-      <c r="M16" t="n">
-        <v>42854.18</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>618.85</v>
+        <v>659.85</v>
       </c>
       <c r="C17" t="n">
-        <v>7351</v>
+        <v>7593</v>
       </c>
       <c r="D17" t="n">
-        <v>106.82</v>
+        <v>118.88</v>
       </c>
       <c r="E17" t="n">
-        <v>30044.86</v>
+        <v>52141.68</v>
       </c>
       <c r="F17" t="n">
-        <v>683.08</v>
+        <v>732.6</v>
       </c>
       <c r="G17" t="n">
-        <v>99601.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>113.06</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1266</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.14999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17087.41</v>
-      </c>
-      <c r="L17" t="n">
-        <v>119.1800000000001</v>
-      </c>
-      <c r="M17" t="n">
-        <v>56747.62</v>
+        <v>154367.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>659.85</v>
+        <v>618.85</v>
       </c>
       <c r="C18" t="n">
-        <v>7593</v>
+        <v>7351</v>
       </c>
       <c r="D18" t="n">
-        <v>118.88</v>
+        <v>106.82</v>
       </c>
       <c r="E18" t="n">
-        <v>52141.68</v>
+        <v>30044.86</v>
       </c>
       <c r="F18" t="n">
-        <v>732.6</v>
+        <v>683.08</v>
       </c>
       <c r="G18" t="n">
-        <v>154367.45</v>
-      </c>
-      <c r="H18" t="n">
-        <v>41</v>
-      </c>
-      <c r="I18" t="n">
-        <v>242</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="K18" t="n">
-        <v>22096.82</v>
-      </c>
-      <c r="L18" t="n">
-        <v>49.51999999999998</v>
-      </c>
-      <c r="M18" t="n">
-        <v>54765.65000000001</v>
+        <v>99601.8</v>
       </c>
     </row>
     <row r="19">
@@ -1250,24 +914,6 @@
       <c r="G19" t="n">
         <v>206512.93</v>
       </c>
-      <c r="H19" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="I19" t="n">
-        <v>262</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.300000000000011</v>
-      </c>
-      <c r="K19" t="n">
-        <v>52291.71</v>
-      </c>
-      <c r="L19" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>52145.47999999998</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,109 +939,55 @@
       <c r="G20" t="n">
         <v>51865</v>
       </c>
-      <c r="H20" t="n">
-        <v>527.4400000000001</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6029</v>
-      </c>
-      <c r="J20" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14944</v>
-      </c>
-      <c r="L20" t="n">
-        <v>566.73</v>
-      </c>
-      <c r="M20" t="n">
-        <v>51865</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>648.67</v>
+        <v>696.9</v>
       </c>
       <c r="C21" t="n">
-        <v>7351</v>
+        <v>7614</v>
       </c>
       <c r="D21" t="n">
-        <v>126.6</v>
+        <v>133.4</v>
       </c>
       <c r="E21" t="n">
-        <v>34263</v>
+        <v>56325</v>
       </c>
       <c r="F21" t="n">
-        <v>709.77</v>
+        <v>774.63</v>
       </c>
       <c r="G21" t="n">
-        <v>119432</v>
-      </c>
-      <c r="H21" t="n">
-        <v>121.2299999999999</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1322</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.699999999999989</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19319</v>
-      </c>
-      <c r="L21" t="n">
-        <v>143.04</v>
-      </c>
-      <c r="M21" t="n">
-        <v>67567</v>
+        <v>180605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.9</v>
+        <v>648.67</v>
       </c>
       <c r="C22" t="n">
-        <v>7614</v>
+        <v>7351</v>
       </c>
       <c r="D22" t="n">
-        <v>133.4</v>
+        <v>126.6</v>
       </c>
       <c r="E22" t="n">
-        <v>56325</v>
+        <v>34263</v>
       </c>
       <c r="F22" t="n">
-        <v>774.63</v>
+        <v>709.77</v>
       </c>
       <c r="G22" t="n">
-        <v>180605</v>
-      </c>
-      <c r="H22" t="n">
-        <v>48.23000000000002</v>
-      </c>
-      <c r="I22" t="n">
-        <v>263</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.800000000000011</v>
-      </c>
-      <c r="K22" t="n">
-        <v>22062</v>
-      </c>
-      <c r="L22" t="n">
-        <v>64.86000000000001</v>
-      </c>
-      <c r="M22" t="n">
-        <v>61173</v>
+        <v>119432</v>
       </c>
     </row>
     <row r="23">
@@ -1422,24 +1014,6 @@
       <c r="G23" t="n">
         <v>232572</v>
       </c>
-      <c r="H23" t="n">
-        <v>70.60000000000002</v>
-      </c>
-      <c r="I23" t="n">
-        <v>273</v>
-      </c>
-      <c r="J23" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>48971</v>
-      </c>
-      <c r="L23" t="n">
-        <v>185.03</v>
-      </c>
-      <c r="M23" t="n">
-        <v>51967</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1465,109 +1039,55 @@
       <c r="G24" t="n">
         <v>61228</v>
       </c>
-      <c r="H24" t="n">
-        <v>534.71</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5785</v>
-      </c>
-      <c r="J24" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>16924</v>
-      </c>
-      <c r="L24" t="n">
-        <v>599.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>61228</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>646.4400000000001</v>
+        <v>711.1</v>
       </c>
       <c r="C25" t="n">
-        <v>6779</v>
+        <v>6997</v>
       </c>
       <c r="D25" t="n">
-        <v>124.8</v>
+        <v>131.4</v>
       </c>
       <c r="E25" t="n">
-        <v>39214</v>
+        <v>62445</v>
       </c>
       <c r="F25" t="n">
-        <v>729.91</v>
+        <v>831.34</v>
       </c>
       <c r="G25" t="n">
-        <v>144742</v>
-      </c>
-      <c r="H25" t="n">
-        <v>111.73</v>
-      </c>
-      <c r="I25" t="n">
-        <v>994</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.200000000000003</v>
-      </c>
-      <c r="K25" t="n">
-        <v>22290</v>
-      </c>
-      <c r="L25" t="n">
-        <v>130.66</v>
-      </c>
-      <c r="M25" t="n">
-        <v>83514</v>
+        <v>211209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>711.1</v>
+        <v>646.4400000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>6997</v>
+        <v>6779</v>
       </c>
       <c r="D26" t="n">
-        <v>131.4</v>
+        <v>124.8</v>
       </c>
       <c r="E26" t="n">
-        <v>62445</v>
+        <v>39214</v>
       </c>
       <c r="F26" t="n">
-        <v>831.34</v>
+        <v>729.91</v>
       </c>
       <c r="G26" t="n">
-        <v>211209</v>
-      </c>
-      <c r="H26" t="n">
-        <v>64.65999999999997</v>
-      </c>
-      <c r="I26" t="n">
-        <v>218</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6.600000000000009</v>
-      </c>
-      <c r="K26" t="n">
-        <v>23231</v>
-      </c>
-      <c r="L26" t="n">
-        <v>101.4300000000001</v>
-      </c>
-      <c r="M26" t="n">
-        <v>66467</v>
+        <v>144742</v>
       </c>
     </row>
     <row r="27">
@@ -1594,24 +1114,6 @@
       <c r="G27" t="n">
         <v>275319</v>
       </c>
-      <c r="H27" t="n">
-        <v>80.69999999999993</v>
-      </c>
-      <c r="I27" t="n">
-        <v>298</v>
-      </c>
-      <c r="J27" t="n">
-        <v>123.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>52420</v>
-      </c>
-      <c r="L27" t="n">
-        <v>182.5699999999999</v>
-      </c>
-      <c r="M27" t="n">
-        <v>64110</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1637,109 +1139,55 @@
       <c r="G28" t="n">
         <v>71289</v>
       </c>
-      <c r="H28" t="n">
-        <v>551.42</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5686</v>
-      </c>
-      <c r="J28" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>18038</v>
-      </c>
-      <c r="L28" t="n">
-        <v>628.0700000000001</v>
-      </c>
-      <c r="M28" t="n">
-        <v>71289</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>712.27</v>
+        <v>787.39</v>
       </c>
       <c r="C29" t="n">
-        <v>6552</v>
+        <v>6743</v>
       </c>
       <c r="D29" t="n">
-        <v>120.7</v>
+        <v>122.3</v>
       </c>
       <c r="E29" t="n">
-        <v>40871</v>
+        <v>58753</v>
       </c>
       <c r="F29" t="n">
-        <v>811.47</v>
+        <v>954.5599999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>153049</v>
-      </c>
-      <c r="H29" t="n">
-        <v>160.85</v>
-      </c>
-      <c r="I29" t="n">
-        <v>866</v>
-      </c>
-      <c r="J29" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>22833</v>
-      </c>
-      <c r="L29" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>81760</v>
+        <v>216174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>787.39</v>
+        <v>712.27</v>
       </c>
       <c r="C30" t="n">
-        <v>6743</v>
+        <v>6552</v>
       </c>
       <c r="D30" t="n">
-        <v>122.3</v>
+        <v>120.7</v>
       </c>
       <c r="E30" t="n">
-        <v>58753</v>
+        <v>40871</v>
       </c>
       <c r="F30" t="n">
-        <v>954.5599999999999</v>
+        <v>811.47</v>
       </c>
       <c r="G30" t="n">
-        <v>216174</v>
-      </c>
-      <c r="H30" t="n">
-        <v>75.12</v>
-      </c>
-      <c r="I30" t="n">
-        <v>191</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="K30" t="n">
-        <v>17882</v>
-      </c>
-      <c r="L30" t="n">
-        <v>143.0899999999999</v>
-      </c>
-      <c r="M30" t="n">
-        <v>63125</v>
+        <v>153049</v>
       </c>
     </row>
     <row r="31">
@@ -1766,24 +1214,6 @@
       <c r="G31" t="n">
         <v>293798</v>
       </c>
-      <c r="H31" t="n">
-        <v>108.51</v>
-      </c>
-      <c r="I31" t="n">
-        <v>196</v>
-      </c>
-      <c r="J31" t="n">
-        <v>122.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>53715</v>
-      </c>
-      <c r="L31" t="n">
-        <v>179.74</v>
-      </c>
-      <c r="M31" t="n">
-        <v>77624</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1809,109 +1239,55 @@
       <c r="G32" t="n">
         <v>77700</v>
       </c>
-      <c r="H32" t="n">
-        <v>609.83</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5655</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>18607</v>
-      </c>
-      <c r="L32" t="n">
-        <v>695.73</v>
-      </c>
-      <c r="M32" t="n">
-        <v>77700</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>731.51</v>
+        <v>853.0599999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>6417</v>
+        <v>6572</v>
       </c>
       <c r="D33" t="n">
-        <v>152.6</v>
+        <v>153.6</v>
       </c>
       <c r="E33" t="n">
-        <v>41351</v>
+        <v>65176</v>
       </c>
       <c r="F33" t="n">
-        <v>873.6</v>
+        <v>1027.98</v>
       </c>
       <c r="G33" t="n">
-        <v>172355</v>
-      </c>
-      <c r="H33" t="n">
-        <v>121.6799999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>762</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="K33" t="n">
-        <v>22744</v>
-      </c>
-      <c r="L33" t="n">
-        <v>177.87</v>
-      </c>
-      <c r="M33" t="n">
-        <v>94655</v>
+        <v>241567</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.0599999999999</v>
+        <v>731.51</v>
       </c>
       <c r="C34" t="n">
-        <v>6572</v>
+        <v>6417</v>
       </c>
       <c r="D34" t="n">
-        <v>153.6</v>
+        <v>152.6</v>
       </c>
       <c r="E34" t="n">
-        <v>65176</v>
+        <v>41351</v>
       </c>
       <c r="F34" t="n">
-        <v>1027.98</v>
+        <v>873.6</v>
       </c>
       <c r="G34" t="n">
-        <v>241567</v>
-      </c>
-      <c r="H34" t="n">
-        <v>121.55</v>
-      </c>
-      <c r="I34" t="n">
-        <v>155</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>23825</v>
-      </c>
-      <c r="L34" t="n">
-        <v>154.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>69212</v>
+        <v>172355</v>
       </c>
     </row>
     <row r="35">
@@ -1938,24 +1314,6 @@
       <c r="G35" t="n">
         <v>311937</v>
       </c>
-      <c r="H35" t="n">
-        <v>56.31000000000006</v>
-      </c>
-      <c r="I35" t="n">
-        <v>168</v>
-      </c>
-      <c r="J35" t="n">
-        <v>149</v>
-      </c>
-      <c r="K35" t="n">
-        <v>51310</v>
-      </c>
-      <c r="L35" t="n">
-        <v>217.8799999999999</v>
-      </c>
-      <c r="M35" t="n">
-        <v>70370</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1981,109 +1339,55 @@
       <c r="G36" t="n">
         <v>95840</v>
       </c>
-      <c r="H36" t="n">
-        <v>516.39</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5822</v>
-      </c>
-      <c r="J36" t="n">
-        <v>69.69999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>23897</v>
-      </c>
-      <c r="L36" t="n">
-        <v>635.28</v>
-      </c>
-      <c r="M36" t="n">
-        <v>95840</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.09</v>
+        <v>689.89</v>
       </c>
       <c r="C37" t="n">
-        <v>6635</v>
+        <v>6769</v>
       </c>
       <c r="D37" t="n">
-        <v>232.7</v>
+        <v>233.6</v>
       </c>
       <c r="E37" t="n">
-        <v>56631</v>
+        <v>89204</v>
       </c>
       <c r="F37" t="n">
-        <v>745.62</v>
+        <v>854.74</v>
       </c>
       <c r="G37" t="n">
-        <v>228482</v>
-      </c>
-      <c r="H37" t="n">
-        <v>96.70000000000005</v>
-      </c>
-      <c r="I37" t="n">
-        <v>813</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14</v>
-      </c>
-      <c r="K37" t="n">
-        <v>32734</v>
-      </c>
-      <c r="L37" t="n">
-        <v>110.34</v>
-      </c>
-      <c r="M37" t="n">
-        <v>132642</v>
+        <v>336009</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>689.89</v>
+        <v>613.09</v>
       </c>
       <c r="C38" t="n">
-        <v>6769</v>
+        <v>6635</v>
       </c>
       <c r="D38" t="n">
-        <v>233.6</v>
+        <v>232.7</v>
       </c>
       <c r="E38" t="n">
-        <v>89204</v>
+        <v>56631</v>
       </c>
       <c r="F38" t="n">
-        <v>854.74</v>
+        <v>745.62</v>
       </c>
       <c r="G38" t="n">
-        <v>336009</v>
-      </c>
-      <c r="H38" t="n">
-        <v>76.79999999999995</v>
-      </c>
-      <c r="I38" t="n">
-        <v>134</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="K38" t="n">
-        <v>32573</v>
-      </c>
-      <c r="L38" t="n">
-        <v>109.12</v>
-      </c>
-      <c r="M38" t="n">
-        <v>107527</v>
+        <v>228482</v>
       </c>
     </row>
     <row r="39">
@@ -2110,24 +1414,6 @@
       <c r="G39" t="n">
         <v>408835</v>
       </c>
-      <c r="H39" t="n">
-        <v>45.66999999999996</v>
-      </c>
-      <c r="I39" t="n">
-        <v>188</v>
-      </c>
-      <c r="J39" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>72824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>208.04</v>
-      </c>
-      <c r="M39" t="n">
-        <v>72826</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2153,109 +1439,55 @@
       <c r="G40" t="n">
         <v>114045</v>
       </c>
-      <c r="H40" t="n">
-        <v>559.16</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5990</v>
-      </c>
-      <c r="J40" t="n">
-        <v>54.70000000000002</v>
-      </c>
-      <c r="K40" t="n">
-        <v>30980</v>
-      </c>
-      <c r="L40" t="n">
-        <v>615.38</v>
-      </c>
-      <c r="M40" t="n">
-        <v>114045</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>658.0700000000001</v>
+        <v>704</v>
       </c>
       <c r="C41" t="n">
-        <v>6688</v>
+        <v>6843</v>
       </c>
       <c r="D41" t="n">
-        <v>254.5</v>
+        <v>267.9</v>
       </c>
       <c r="E41" t="n">
-        <v>64493</v>
+        <v>102888</v>
       </c>
       <c r="F41" t="n">
-        <v>813.8</v>
+        <v>881.96</v>
       </c>
       <c r="G41" t="n">
-        <v>242053</v>
-      </c>
-      <c r="H41" t="n">
-        <v>98.91000000000008</v>
-      </c>
-      <c r="I41" t="n">
-        <v>698</v>
-      </c>
-      <c r="J41" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>33513</v>
-      </c>
-      <c r="L41" t="n">
-        <v>198.42</v>
-      </c>
-      <c r="M41" t="n">
-        <v>128008</v>
+        <v>369858</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>704</v>
+        <v>658.0700000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>6843</v>
+        <v>6688</v>
       </c>
       <c r="D42" t="n">
-        <v>267.9</v>
+        <v>254.5</v>
       </c>
       <c r="E42" t="n">
-        <v>102888</v>
+        <v>64493</v>
       </c>
       <c r="F42" t="n">
-        <v>881.96</v>
+        <v>813.8</v>
       </c>
       <c r="G42" t="n">
-        <v>369858</v>
-      </c>
-      <c r="H42" t="n">
-        <v>45.92999999999995</v>
-      </c>
-      <c r="I42" t="n">
-        <v>155</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13.39999999999998</v>
-      </c>
-      <c r="K42" t="n">
-        <v>38395</v>
-      </c>
-      <c r="L42" t="n">
-        <v>68.16000000000008</v>
-      </c>
-      <c r="M42" t="n">
-        <v>127805</v>
+        <v>242053</v>
       </c>
     </row>
     <row r="43">
@@ -2282,24 +1514,6 @@
       <c r="G43" t="n">
         <v>470897</v>
       </c>
-      <c r="H43" t="n">
-        <v>19.10000000000002</v>
-      </c>
-      <c r="I43" t="n">
-        <v>195</v>
-      </c>
-      <c r="J43" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>93381</v>
-      </c>
-      <c r="L43" t="n">
-        <v>156.26</v>
-      </c>
-      <c r="M43" t="n">
-        <v>101039</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2325,109 +1539,55 @@
       <c r="G44" t="n">
         <v>107654</v>
       </c>
-      <c r="H44" t="n">
-        <v>582.0700000000001</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6015</v>
-      </c>
-      <c r="J44" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>28031</v>
-      </c>
-      <c r="L44" t="n">
-        <v>747.29</v>
-      </c>
-      <c r="M44" t="n">
-        <v>107654</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.76</v>
+        <v>696.38</v>
       </c>
       <c r="C45" t="n">
-        <v>6628</v>
+        <v>6724</v>
       </c>
       <c r="D45" t="n">
-        <v>263.9</v>
+        <v>250.7</v>
       </c>
       <c r="E45" t="n">
-        <v>65094</v>
+        <v>93924</v>
       </c>
       <c r="F45" t="n">
-        <v>934.83</v>
+        <v>1070.78</v>
       </c>
       <c r="G45" t="n">
-        <v>236541</v>
-      </c>
-      <c r="H45" t="n">
-        <v>83.68999999999994</v>
-      </c>
-      <c r="I45" t="n">
-        <v>613</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.399999999999977</v>
-      </c>
-      <c r="K45" t="n">
-        <v>37063</v>
-      </c>
-      <c r="L45" t="n">
-        <v>187.5400000000001</v>
-      </c>
-      <c r="M45" t="n">
-        <v>128887</v>
+        <v>335232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.38</v>
+        <v>665.76</v>
       </c>
       <c r="C46" t="n">
-        <v>6724</v>
+        <v>6628</v>
       </c>
       <c r="D46" t="n">
-        <v>250.7</v>
+        <v>263.9</v>
       </c>
       <c r="E46" t="n">
-        <v>93924</v>
+        <v>65094</v>
       </c>
       <c r="F46" t="n">
-        <v>1070.78</v>
+        <v>934.83</v>
       </c>
       <c r="G46" t="n">
-        <v>335232</v>
-      </c>
-      <c r="H46" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="I46" t="n">
-        <v>96</v>
-      </c>
-      <c r="J46" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>28830</v>
-      </c>
-      <c r="L46" t="n">
-        <v>135.9499999999999</v>
-      </c>
-      <c r="M46" t="n">
-        <v>98691</v>
+        <v>236541</v>
       </c>
     </row>
     <row r="47">
@@ -2454,24 +1614,6 @@
       <c r="G47" t="n">
         <v>446890.3</v>
       </c>
-      <c r="H47" t="n">
-        <v>242.62</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>9</v>
-      </c>
-      <c r="K47" t="n">
-        <v>95751.79999999999</v>
-      </c>
-      <c r="L47" t="n">
-        <v>110.4200000000001</v>
-      </c>
-      <c r="M47" t="n">
-        <v>111658.3</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2497,109 +1639,55 @@
       <c r="G48" t="n">
         <v>117893</v>
       </c>
-      <c r="H48" t="n">
-        <v>674.35</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5849</v>
-      </c>
-      <c r="J48" t="n">
-        <v>43.30000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>31949</v>
-      </c>
-      <c r="L48" t="n">
-        <v>739.65</v>
-      </c>
-      <c r="M48" t="n">
-        <v>117893</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>777.9299999999999</v>
+        <v>853.24</v>
       </c>
       <c r="C49" t="n">
-        <v>6457</v>
+        <v>6637</v>
       </c>
       <c r="D49" t="n">
-        <v>306.1</v>
+        <v>293.2</v>
       </c>
       <c r="E49" t="n">
-        <v>73788</v>
+        <v>113724</v>
       </c>
       <c r="F49" t="n">
-        <v>868.42</v>
+        <v>1001.91</v>
       </c>
       <c r="G49" t="n">
-        <v>261373</v>
-      </c>
-      <c r="H49" t="n">
-        <v>103.5799999999999</v>
-      </c>
-      <c r="I49" t="n">
-        <v>608</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.100000000000023</v>
-      </c>
-      <c r="K49" t="n">
-        <v>41839</v>
-      </c>
-      <c r="L49" t="n">
-        <v>128.77</v>
-      </c>
-      <c r="M49" t="n">
-        <v>143480</v>
+        <v>368042</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>853.24</v>
+        <v>777.9299999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>6637</v>
+        <v>6457</v>
       </c>
       <c r="D50" t="n">
-        <v>293.2</v>
+        <v>306.1</v>
       </c>
       <c r="E50" t="n">
-        <v>113724</v>
+        <v>73788</v>
       </c>
       <c r="F50" t="n">
-        <v>1001.91</v>
+        <v>868.42</v>
       </c>
       <c r="G50" t="n">
-        <v>368042</v>
-      </c>
-      <c r="H50" t="n">
-        <v>75.31000000000006</v>
-      </c>
-      <c r="I50" t="n">
-        <v>180</v>
-      </c>
-      <c r="J50" t="n">
-        <v>293.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>39936</v>
-      </c>
-      <c r="L50" t="n">
-        <v>133.49</v>
-      </c>
-      <c r="M50" t="n">
-        <v>106669</v>
+        <v>261373</v>
       </c>
     </row>
     <row r="51">
@@ -2626,24 +1714,6 @@
       <c r="G51" t="n">
         <v>470315</v>
       </c>
-      <c r="H51" t="n">
-        <v>61.25999999999999</v>
-      </c>
-      <c r="I51" t="n">
-        <v>152</v>
-      </c>
-      <c r="J51" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>99444</v>
-      </c>
-      <c r="L51" t="n">
-        <v>164.89</v>
-      </c>
-      <c r="M51" t="n">
-        <v>102273</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2669,109 +1739,55 @@
       <c r="G52" t="n">
         <v>120526</v>
       </c>
-      <c r="H52" t="n">
-        <v>691.28</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5959</v>
-      </c>
-      <c r="J52" t="n">
-        <v>34</v>
-      </c>
-      <c r="K52" t="n">
-        <v>37347</v>
-      </c>
-      <c r="L52" t="n">
-        <v>754.22</v>
-      </c>
-      <c r="M52" t="n">
-        <v>120526</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>822.3099999999999</v>
+        <v>887.49</v>
       </c>
       <c r="C53" t="n">
-        <v>6502</v>
+        <v>6665</v>
       </c>
       <c r="D53" t="n">
-        <v>309.7</v>
+        <v>307.9</v>
       </c>
       <c r="E53" t="n">
-        <v>81377</v>
+        <v>118667</v>
       </c>
       <c r="F53" t="n">
-        <v>924.53</v>
+        <v>1021.89999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>265481</v>
-      </c>
-      <c r="H53" t="n">
-        <v>131.03</v>
-      </c>
-      <c r="I53" t="n">
-        <v>543</v>
-      </c>
-      <c r="J53" t="n">
-        <v>309.7</v>
-      </c>
-      <c r="K53" t="n">
-        <v>44030</v>
-      </c>
-      <c r="L53" t="n">
-        <v>170.3099999999999</v>
-      </c>
-      <c r="M53" t="n">
-        <v>144955</v>
+        <v>388536</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>887.49</v>
+        <v>822.3099999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>6665</v>
+        <v>6502</v>
       </c>
       <c r="D54" t="n">
-        <v>307.9</v>
+        <v>309.7</v>
       </c>
       <c r="E54" t="n">
-        <v>118667</v>
+        <v>81377</v>
       </c>
       <c r="F54" t="n">
-        <v>1021.89999999999</v>
+        <v>924.53</v>
       </c>
       <c r="G54" t="n">
-        <v>388536</v>
-      </c>
-      <c r="H54" t="n">
-        <v>65.18000000000006</v>
-      </c>
-      <c r="I54" t="n">
-        <v>163</v>
-      </c>
-      <c r="J54" t="n">
-        <v>307.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>37290</v>
-      </c>
-      <c r="L54" t="n">
-        <v>97.36999999999</v>
-      </c>
-      <c r="M54" t="n">
-        <v>123055</v>
+        <v>265481</v>
       </c>
     </row>
     <row r="55">
@@ -2798,24 +1814,6 @@
       <c r="G55" t="n">
         <v>484633</v>
       </c>
-      <c r="H55" t="n">
-        <v>87.66999999999996</v>
-      </c>
-      <c r="I55" t="n">
-        <v>149</v>
-      </c>
-      <c r="J55" t="n">
-        <v>280.2</v>
-      </c>
-      <c r="K55" t="n">
-        <v>92687</v>
-      </c>
-      <c r="L55" t="n">
-        <v>206.2000000000099</v>
-      </c>
-      <c r="M55" t="n">
-        <v>96097</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2841,109 +1839,55 @@
       <c r="G56" t="n">
         <v>124415</v>
       </c>
-      <c r="H56" t="n">
-        <v>717.9</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5941</v>
-      </c>
-      <c r="J56" t="n">
-        <v>27.60000000000002</v>
-      </c>
-      <c r="K56" t="n">
-        <v>38434</v>
-      </c>
-      <c r="L56" t="n">
-        <v>814.78</v>
-      </c>
-      <c r="M56" t="n">
-        <v>124415</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>857.36</v>
+        <v>910.79</v>
       </c>
       <c r="C57" t="n">
-        <v>6580</v>
+        <v>6707</v>
       </c>
       <c r="D57" t="n">
-        <v>309.4</v>
+        <v>321.4</v>
       </c>
       <c r="E57" t="n">
-        <v>79150</v>
+        <v>120354</v>
       </c>
       <c r="F57" t="n">
-        <v>980.79</v>
+        <v>1071.22</v>
       </c>
       <c r="G57" t="n">
-        <v>290210</v>
-      </c>
-      <c r="H57" t="n">
-        <v>139.46</v>
-      </c>
-      <c r="I57" t="n">
-        <v>639</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.599999999999966</v>
-      </c>
-      <c r="K57" t="n">
-        <v>40716</v>
-      </c>
-      <c r="L57" t="n">
-        <v>166.01</v>
-      </c>
-      <c r="M57" t="n">
-        <v>165795</v>
+        <v>422901</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>910.79</v>
+        <v>857.36</v>
       </c>
       <c r="C58" t="n">
-        <v>6707</v>
+        <v>6580</v>
       </c>
       <c r="D58" t="n">
-        <v>321.4</v>
+        <v>309.4</v>
       </c>
       <c r="E58" t="n">
-        <v>120354</v>
+        <v>79150</v>
       </c>
       <c r="F58" t="n">
-        <v>1071.22</v>
+        <v>980.79</v>
       </c>
       <c r="G58" t="n">
-        <v>422901</v>
-      </c>
-      <c r="H58" t="n">
-        <v>53.42999999999995</v>
-      </c>
-      <c r="I58" t="n">
-        <v>127</v>
-      </c>
-      <c r="J58" t="n">
-        <v>12</v>
-      </c>
-      <c r="K58" t="n">
-        <v>41204</v>
-      </c>
-      <c r="L58" t="n">
-        <v>90.43000000000006</v>
-      </c>
-      <c r="M58" t="n">
-        <v>132691</v>
+        <v>290210</v>
       </c>
     </row>
     <row r="59">
@@ -2970,24 +1914,6 @@
       <c r="G59" t="n">
         <v>508796</v>
       </c>
-      <c r="H59" t="n">
-        <v>119.72</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>277.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>79935</v>
-      </c>
-      <c r="L59" t="n">
-        <v>260.48</v>
-      </c>
-      <c r="M59" t="n">
-        <v>85895</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3013,109 +1939,55 @@
       <c r="G60" t="n">
         <v>136876</v>
       </c>
-      <c r="H60" t="n">
-        <v>761.4299999999999</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5906</v>
-      </c>
-      <c r="J60" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>37715</v>
-      </c>
-      <c r="L60" t="n">
-        <v>853.4400000000001</v>
-      </c>
-      <c r="M60" t="n">
-        <v>136876</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>866.05</v>
+        <v>927.36</v>
       </c>
       <c r="C61" t="n">
-        <v>6502</v>
+        <v>6688</v>
       </c>
       <c r="D61" t="n">
-        <v>332.7</v>
+        <v>324.6</v>
       </c>
       <c r="E61" t="n">
-        <v>74409</v>
+        <v>113082</v>
       </c>
       <c r="F61" t="n">
-        <v>1022.09</v>
+        <v>1120.84</v>
       </c>
       <c r="G61" t="n">
-        <v>305380</v>
-      </c>
-      <c r="H61" t="n">
-        <v>104.62</v>
-      </c>
-      <c r="I61" t="n">
-        <v>596</v>
-      </c>
-      <c r="J61" t="n">
-        <v>12.80000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>36694</v>
-      </c>
-      <c r="L61" t="n">
-        <v>168.65</v>
-      </c>
-      <c r="M61" t="n">
-        <v>168504</v>
+        <v>445305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>927.36</v>
+        <v>866.05</v>
       </c>
       <c r="C62" t="n">
-        <v>6688</v>
+        <v>6502</v>
       </c>
       <c r="D62" t="n">
-        <v>324.6</v>
+        <v>332.7</v>
       </c>
       <c r="E62" t="n">
-        <v>113082</v>
+        <v>74409</v>
       </c>
       <c r="F62" t="n">
-        <v>1120.84</v>
+        <v>1022.09</v>
       </c>
       <c r="G62" t="n">
-        <v>445305</v>
-      </c>
-      <c r="H62" t="n">
-        <v>61.31000000000006</v>
-      </c>
-      <c r="I62" t="n">
-        <v>186</v>
-      </c>
-      <c r="J62" t="n">
-        <v>324.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>38673</v>
-      </c>
-      <c r="L62" t="n">
-        <v>98.74999999999989</v>
-      </c>
-      <c r="M62" t="n">
-        <v>139925</v>
+        <v>305380</v>
       </c>
     </row>
     <row r="63">
@@ -3142,24 +2014,6 @@
       <c r="G63" t="n">
         <v>549950</v>
       </c>
-      <c r="H63" t="n">
-        <v>145.5099999999999</v>
-      </c>
-      <c r="I63" t="n">
-        <v>192</v>
-      </c>
-      <c r="J63" t="n">
-        <v>295.6</v>
-      </c>
-      <c r="K63" t="n">
-        <v>85122</v>
-      </c>
-      <c r="L63" t="n">
-        <v>260.1900000000001</v>
-      </c>
-      <c r="M63" t="n">
-        <v>104645</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3185,109 +2039,55 @@
       <c r="G64" t="n">
         <v>146891</v>
       </c>
-      <c r="H64" t="n">
-        <v>805.58</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6005</v>
-      </c>
-      <c r="J64" t="n">
-        <v>29.29999999999995</v>
-      </c>
-      <c r="K64" t="n">
-        <v>38543</v>
-      </c>
-      <c r="L64" t="n">
-        <v>923.97</v>
-      </c>
-      <c r="M64" t="n">
-        <v>146891</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>906.45</v>
+        <v>986.1900000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>6490</v>
+        <v>6793</v>
       </c>
       <c r="D65" t="n">
-        <v>333.4</v>
+        <v>333</v>
       </c>
       <c r="E65" t="n">
-        <v>83592</v>
+        <v>131239</v>
       </c>
       <c r="F65" t="n">
-        <v>1077.05</v>
+        <v>1212.64</v>
       </c>
       <c r="G65" t="n">
-        <v>337109</v>
-      </c>
-      <c r="H65" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="I65" t="n">
-        <v>485</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>45049</v>
-      </c>
-      <c r="L65" t="n">
-        <v>153.0799999999999</v>
-      </c>
-      <c r="M65" t="n">
-        <v>190218</v>
+        <v>480219</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>986.1900000000001</v>
+        <v>906.45</v>
       </c>
       <c r="C66" t="n">
-        <v>6793</v>
+        <v>6490</v>
       </c>
       <c r="D66" t="n">
-        <v>333</v>
+        <v>333.4</v>
       </c>
       <c r="E66" t="n">
-        <v>131239</v>
+        <v>83592</v>
       </c>
       <c r="F66" t="n">
-        <v>1212.64</v>
+        <v>1077.05</v>
       </c>
       <c r="G66" t="n">
-        <v>480219</v>
-      </c>
-      <c r="H66" t="n">
-        <v>79.74000000000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>303</v>
-      </c>
-      <c r="J66" t="n">
-        <v>333</v>
-      </c>
-      <c r="K66" t="n">
-        <v>47647</v>
-      </c>
-      <c r="L66" t="n">
-        <v>135.5900000000001</v>
-      </c>
-      <c r="M66" t="n">
-        <v>143110</v>
+        <v>337109</v>
       </c>
     </row>
     <row r="67">
@@ -3314,24 +2114,6 @@
       <c r="G67" t="n">
         <v>596932</v>
       </c>
-      <c r="H67" t="n">
-        <v>95</v>
-      </c>
-      <c r="I67" t="n">
-        <v>134</v>
-      </c>
-      <c r="J67" t="n">
-        <v>318.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>89704</v>
-      </c>
-      <c r="L67" t="n">
-        <v>217.4599999999998</v>
-      </c>
-      <c r="M67" t="n">
-        <v>116713</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3357,109 +2139,55 @@
       <c r="G68" t="n">
         <v>143940</v>
       </c>
-      <c r="H68" t="n">
-        <v>728.79</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5949</v>
-      </c>
-      <c r="J68" t="n">
-        <v>83.69999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33594</v>
-      </c>
-      <c r="L68" t="n">
-        <v>831.1900000000001</v>
-      </c>
-      <c r="M68" t="n">
-        <v>143940</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>900.3200000000001</v>
+        <v>1001.2</v>
       </c>
       <c r="C69" t="n">
-        <v>6642</v>
+        <v>6933</v>
       </c>
       <c r="D69" t="n">
-        <v>390</v>
+        <v>351.6</v>
       </c>
       <c r="E69" t="n">
-        <v>78183</v>
+        <v>122676</v>
       </c>
       <c r="F69" t="n">
-        <v>1077.27</v>
+        <v>1240.93</v>
       </c>
       <c r="G69" t="n">
-        <v>350979</v>
-      </c>
-      <c r="H69" t="n">
-        <v>171.5300000000001</v>
-      </c>
-      <c r="I69" t="n">
-        <v>693</v>
-      </c>
-      <c r="J69" t="n">
-        <v>390</v>
-      </c>
-      <c r="K69" t="n">
-        <v>44589</v>
-      </c>
-      <c r="L69" t="n">
-        <v>246.0799999999999</v>
-      </c>
-      <c r="M69" t="n">
-        <v>207039</v>
+        <v>506996</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1001.2</v>
+        <v>900.3200000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>6933</v>
+        <v>6642</v>
       </c>
       <c r="D70" t="n">
-        <v>351.6</v>
+        <v>390</v>
       </c>
       <c r="E70" t="n">
-        <v>122676</v>
+        <v>78183</v>
       </c>
       <c r="F70" t="n">
-        <v>1240.93</v>
+        <v>1077.27</v>
       </c>
       <c r="G70" t="n">
-        <v>506996</v>
-      </c>
-      <c r="H70" t="n">
-        <v>100.88</v>
-      </c>
-      <c r="I70" t="n">
-        <v>291</v>
-      </c>
-      <c r="J70" t="n">
-        <v>351.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>44493</v>
-      </c>
-      <c r="L70" t="n">
-        <v>163.6600000000001</v>
-      </c>
-      <c r="M70" t="n">
-        <v>156017</v>
+        <v>350979</v>
       </c>
     </row>
     <row r="71">
@@ -3486,24 +2214,6 @@
       <c r="G71" t="n">
         <v>623357</v>
       </c>
-      <c r="H71" t="n">
-        <v>157.29</v>
-      </c>
-      <c r="I71" t="n">
-        <v>257</v>
-      </c>
-      <c r="J71" t="n">
-        <v>328.6</v>
-      </c>
-      <c r="K71" t="n">
-        <v>89870</v>
-      </c>
-      <c r="L71" t="n">
-        <v>297.6199999999999</v>
-      </c>
-      <c r="M71" t="n">
-        <v>116361</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3529,109 +2239,55 @@
       <c r="G72" t="n">
         <v>181553</v>
       </c>
-      <c r="H72" t="n">
-        <v>781.9400000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6254</v>
-      </c>
-      <c r="J72" t="n">
-        <v>76.19999999999999</v>
-      </c>
-      <c r="K72" t="n">
-        <v>49341</v>
-      </c>
-      <c r="L72" t="n">
-        <v>920.9400000000001</v>
-      </c>
-      <c r="M72" t="n">
-        <v>181553</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>940.58</v>
+        <v>1021.79</v>
       </c>
       <c r="C73" t="n">
-        <v>6926</v>
+        <v>7465</v>
       </c>
       <c r="D73" t="n">
-        <v>383</v>
+        <v>375.9</v>
       </c>
       <c r="E73" t="n">
-        <v>99920</v>
+        <v>151997</v>
       </c>
       <c r="F73" t="n">
-        <v>1175.05</v>
+        <v>1345.47</v>
       </c>
       <c r="G73" t="n">
-        <v>392593</v>
-      </c>
-      <c r="H73" t="n">
-        <v>158.64</v>
-      </c>
-      <c r="I73" t="n">
-        <v>672</v>
-      </c>
-      <c r="J73" t="n">
-        <v>383</v>
-      </c>
-      <c r="K73" t="n">
-        <v>50579</v>
-      </c>
-      <c r="L73" t="n">
-        <v>254.1099999999999</v>
-      </c>
-      <c r="M73" t="n">
-        <v>211040</v>
+        <v>553493</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1021.79</v>
+        <v>940.58</v>
       </c>
       <c r="C74" t="n">
-        <v>7465</v>
+        <v>6926</v>
       </c>
       <c r="D74" t="n">
-        <v>375.9</v>
+        <v>383</v>
       </c>
       <c r="E74" t="n">
-        <v>151997</v>
+        <v>99920</v>
       </c>
       <c r="F74" t="n">
-        <v>1345.47</v>
+        <v>1175.05</v>
       </c>
       <c r="G74" t="n">
-        <v>553493</v>
-      </c>
-      <c r="H74" t="n">
-        <v>81.20999999999992</v>
-      </c>
-      <c r="I74" t="n">
-        <v>539</v>
-      </c>
-      <c r="J74" t="n">
-        <v>375.9</v>
-      </c>
-      <c r="K74" t="n">
-        <v>52077</v>
-      </c>
-      <c r="L74" t="n">
-        <v>170.4200000000001</v>
-      </c>
-      <c r="M74" t="n">
-        <v>160900</v>
+        <v>392593</v>
       </c>
     </row>
     <row r="75">
@@ -3641,40 +2297,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1201.39</v>
+        <v>1243.06</v>
       </c>
       <c r="C75" t="n">
-        <v>7826</v>
+        <v>8324</v>
       </c>
       <c r="D75" t="n">
-        <v>343</v>
+        <v>344.9</v>
       </c>
       <c r="E75" t="n">
-        <v>251564</v>
+        <v>251047</v>
       </c>
       <c r="F75" t="n">
-        <v>1621.85</v>
+        <v>1670.87</v>
       </c>
       <c r="G75" t="n">
-        <v>681110</v>
-      </c>
-      <c r="H75" t="n">
-        <v>179.6000000000001</v>
-      </c>
-      <c r="I75" t="n">
-        <v>361</v>
-      </c>
-      <c r="J75" t="n">
-        <v>343</v>
-      </c>
-      <c r="K75" t="n">
-        <v>99567</v>
-      </c>
-      <c r="L75" t="n">
-        <v>276.3799999999999</v>
-      </c>
-      <c r="M75" t="n">
-        <v>127617</v>
+        <v>675829</v>
       </c>
     </row>
   </sheetData>
